--- a/00硬件/00车型/江铃E100/江铃E100.xlsx
+++ b/00硬件/00车型/江铃E100/江铃E100.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -85,13 +85,41 @@
   </si>
   <si>
     <t>轴距(mm)</t>
+  </si>
+  <si>
+    <t>32（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57（cm）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -106,6 +134,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -146,13 +179,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,6 +211,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121530</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019737</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337618" y="2146394"/>
+          <a:ext cx="1898207" cy="3167597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2431677</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705445</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>126565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5647765" y="2386853"/>
+          <a:ext cx="3204356" cy="2446183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,22 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -480,8 +636,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -491,8 +647,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -502,8 +658,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -513,8 +669,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -524,8 +680,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -535,8 +691,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -546,8 +702,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -557,8 +713,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -568,8 +724,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -579,8 +735,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -590,8 +746,8 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -599,12 +755,69 @@
       </c>
       <c r="C12" s="2">
         <v>1360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -614,7 +827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
